--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="eventos(MySQL)" sheetId="4" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="eventos(Cassandra)" sheetId="6" r:id="rId6"/>
     <sheet name="usuarios_has_eventos(Cassandra)" sheetId="7" r:id="rId7"/>
     <sheet name="usuarios_has_eventos(MySQL)" sheetId="8" r:id="rId8"/>
+    <sheet name="grupos_has_usuarios(MySQL)" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="718">
   <si>
     <t>INSERT INTO `grupos` (`idgrupo`,`dsgrupo`) VALUES (91,"Sodales Nisi Magna Ltd"),(92,"Arcu Aliquam LLP"),(93,"Consectetuer LLC"),(94,"Nibh Vulputate Mauris LLP"),(95,"Nonummy Ipsum Non Institute"),(96,"Sociis Natoque Penatibus Inc."),(97,"Eget Institute"),(98,"Nunc Nulla Consulting"),(99,"Sed Pharetra Felis Corporation"),(100,"Nec Ante Foundation");</t>
   </si>
@@ -1875,6 +1876,306 @@
   </si>
   <si>
     <t>INSERT INTO `usuarios_has_eventos` (`usuarios_idusuario`,`eventos_idevento`) VALUES (20,97);</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (26,1,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (97,2,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (6,3,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (22,4,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (24,5,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (58,6,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (80,7,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (94,8,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (23,9,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (7,10,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (14,11,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (51,12,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (9,13,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (5,14,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (5,15,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (21,16,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (18,17,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (56,18,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (96,19,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (44,20,"Y");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (82,1,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (81,1,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (99,1,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (65,1,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (3,2,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (42,2,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (58,2,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (80,2,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (28,3,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (4,3,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (92,3,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (19,3,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (42,4,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (64,4,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (11,4,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (74,4,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (96,5,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (85,5,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (48,5,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (72,5,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (19,6,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (32,6,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (33,6,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (67,6,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (9,7,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (67,7,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (51,7,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (83,7,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (51,8,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (70,8,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (84,8,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (48,8,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (46,9,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (24,9,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (35,9,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (13,9,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (92,10,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (75,10,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (9,10,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (42,10,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (23,11,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (78,11,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (8,11,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (19,11,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (36,12,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (77,12,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (16,12,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (29,12,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (38,13,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (70,13,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (100,13,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (23,13,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (43,14,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (12,14,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (56,14,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (23,14,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (64,15,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (1,15,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (31,15,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (46,15,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (62,16,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (71,16,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (98,16,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (99,16,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (74,17,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (97,17,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (83,17,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (62,17,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (98,18,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (56,18,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (38,18,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (13,18,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (43,19,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (65,19,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (56,19,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (98,19,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (57,20,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (44,20,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (88,20,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (79,20,"N");</t>
   </si>
 </sst>
 </file>
@@ -4923,7 +5224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
@@ -5432,4 +5733,517 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>717</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="eventos(MySQL)" sheetId="4" r:id="rId1"/>
@@ -16,13 +16,16 @@
     <sheet name="usuarios_has_eventos(Cassandra)" sheetId="7" r:id="rId7"/>
     <sheet name="usuarios_has_eventos(MySQL)" sheetId="8" r:id="rId8"/>
     <sheet name="grupos_has_usuarios(MySQL)" sheetId="9" r:id="rId9"/>
+    <sheet name="grupos_has_usuarios(Cassandra)" sheetId="10" r:id="rId10"/>
+    <sheet name="comentarios(MySQL)" sheetId="11" r:id="rId11"/>
+    <sheet name="comentarios(Cassandra)" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="1018">
   <si>
     <t>INSERT INTO `grupos` (`idgrupo`,`dsgrupo`) VALUES (91,"Sodales Nisi Magna Ltd"),(92,"Arcu Aliquam LLP"),(93,"Consectetuer LLC"),(94,"Nibh Vulputate Mauris LLP"),(95,"Nonummy Ipsum Non Institute"),(96,"Sociis Natoque Penatibus Inc."),(97,"Eget Institute"),(98,"Nunc Nulla Consulting"),(99,"Sed Pharetra Felis Corporation"),(100,"Nec Ante Foundation");</t>
   </si>
@@ -2176,6 +2179,906 @@
   </si>
   <si>
     <t>INSERT INTO `grupos_has_usuarios` (`grupos_idgrupo`,`usuarios_idusuario`,`principal`) VALUES (79,20,"N");</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (26,1,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (82,1,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (81,1,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (99,1,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (65,1,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (97,2,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (3,2,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (42,2,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (58,2,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (80,2,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (6,3,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (28,3,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (4,3,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (92,3,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (19,3,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (22,4,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (42,4,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (64,4,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (11,4,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (74,4,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (24,5,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (96,5,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (85,5,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (48,5,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (72,5,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (58,6,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (19,6,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (32,6,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (33,6,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (67,6,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (80,7,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (9,7,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (67,7,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (51,7,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (83,7,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (94,8,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (51,8,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (70,8,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (84,8,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (48,8,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (23,9,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (46,9,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (24,9,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (35,9,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (13,9,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (7,10,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (92,10,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (75,10,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (9,10,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (42,10,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (14,11,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (23,11,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (78,11,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (8,11,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (19,11,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (51,12,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (36,12,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (77,12,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (16,12,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (29,12,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (9,13,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (38,13,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (70,13,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (100,13,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (23,13,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (5,14,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (43,14,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (12,14,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (56,14,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (23,14,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (5,15,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (64,15,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (1,15,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (31,15,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (46,15,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (21,16,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (62,16,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (71,16,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (98,16,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (99,16,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (18,17,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (74,17,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (97,17,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (83,17,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (62,17,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (56,18,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (98,18,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (56,18,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (38,18,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (13,18,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (96,19,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (43,19,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (65,19,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (56,19,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (98,19,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (44,20,'Y');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (57,20,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (44,20,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (88,20,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.usuarios_has_grupos (grupos_idgrupo,usuarios_idusuario,principal) VALUES (79,20,'N');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (1,53,2,"Elit Erat Vitae PC","1551592682","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (2,72,45,"Imperdiet Nec Limited","1550910236","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (3,8,28,"Lorem Ipsum Foundation","1555551246","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (4,91,99,"Ullamcorper Nisl Industries","1565600789","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (5,39,31,"Sem Ut Dolor Inc.","1581535943","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (6,2,51,"Nunc In Company","1568462310","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (7,13,4,"Odio LLP","1566733447","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (8,17,56,"Turpis Incorporated","1587234766","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (9,59,100,"Urna Nunc Quis LLP","1525444154","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (10,10,36,"Placerat Velit Quisque Limited","1553944354","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (11,61,14,"Taciti LLP","1568682024","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (12,12,7,"Vitae Risus Incorporated","1533060697","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (13,47,65,"Sed Corporation","1566005085","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (14,1,48,"Sit Amet Associates","1581967360","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (15,23,86,"Id Erat Corporation","1565098862","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (16,87,77,"Elit Etiam LLC","1581007769","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (17,30,94,"Enim Consequat Purus Company","1582566924","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (18,50,71,"Nulla Donec Non Corporation","1549605389","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (19,37,45,"Sem Ut Cursus Corp.","1573269128","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (20,2,58,"Vestibulum LLP","1568294257","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (21,23,64,"Fames Ac Turpis Inc.","1541376674","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (22,62,35,"Lobortis Ltd","1585890025","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (23,20,71,"Et Ultrices Posuere LLC","1569452010","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (24,84,68,"Eget Tincidunt Incorporated","1553505053","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (25,30,79,"Vestibulum Lorem LLC","1526472033","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (26,85,38,"Ipsum Sodales Associates","1563432941","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (27,36,27,"Justo Sit Amet Corp.","1538536153","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (28,57,8,"Mauris Sit Amet LLC","1554111828","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (29,31,20,"Fringilla Mi Industries","1547878248","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (30,85,13,"Suspendisse Institute","1578548689","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (31,18,30,"Erat PC","1547322025","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (32,38,49,"Nullam Feugiat Associates","1549698954","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (33,15,82,"Magna Ltd","1562404708","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (34,74,19,"Sit Amet LLC","1567155277","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (35,62,54,"Sit Amet Consectetuer LLC","1557860615","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (36,41,58,"Id Ante Nunc Foundation","1537121004","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (37,83,39,"Auctor Associates","1541493413","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (38,52,97,"Malesuada Fames Ac Inc.","1527493726","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (39,15,83,"Faucibus Id Libero Foundation","1556678011","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (40,27,87,"Faucibus Leo Industries","1566270804","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (41,91,67,"Ligula Company","1550481314","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (42,11,47,"Ornare Facilisis Corp.","1552193998","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (43,68,89,"Neque Sed Incorporated","1551650989","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (44,68,17,"Sed Pede LLP","1536613667","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (45,54,84,"Sit Ltd","1549913679","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (46,100,35,"Mauris Magna Corporation","1533731553","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (47,90,65,"Penatibus PC","1568273975","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (48,88,21,"Nullam Foundation","1585136242","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (49,12,27,"Lacus Pede Sagittis Corporation","1546147665","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (50,24,9,"Lorem Ipsum Dolor Foundation","1556663542","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (51,90,97,"Aliquam Eu Accumsan Inc.","1530334484","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (52,52,92,"Risus Donec Egestas LLP","1551660392","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (53,48,33,"Vel Vulputate Eu Corp.","1526677346","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (54,70,71,"Nulla Facilisis Incorporated","1540507892","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (55,40,26,"Sem Ut Dolor Foundation","1571871186","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (56,18,28,"Vitae Corporation","1554219238","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (57,96,45,"Lectus Corporation","1568674940","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (58,10,58,"Maecenas Mi Felis Industries","1569151581","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (59,60,86,"Orci Consectetuer Company","1546509543","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (60,26,90,"Diam PC","1561169412","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (61,77,52,"Et LLP","1581148482","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (62,79,23,"Eu Tellus Eu Industries","1555091819","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (63,15,92,"Curabitur Massa Vestibulum Limited","1535208954","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (64,10,87,"Elementum Dui Quis Ltd","1584240693","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (65,5,81,"Dolor Inc.","1534194696","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (66,67,82,"Egestas A Corporation","1552051802","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (67,71,25,"Parturient Inc.","1524992811","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (68,37,4,"Et Magnis Dis Limited","1527294922","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (69,24,28,"Magna Nec Associates","1537403907","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (70,86,12,"Ultricies LLP","1554091681","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (71,57,68,"Quam Dignissim PC","1583880472","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (72,69,96,"Luctus Lobortis Company","1574733464","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (73,9,34,"Magnis Dis Corporation","1550555591","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (74,37,100,"Elementum Ltd","1545123437","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (75,65,43,"Justo Proin Non Consulting","1556337604","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (76,35,48,"Velit Justo Nec Corp.","1542186140","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (77,73,94,"Metus In Nec PC","1558004633","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (78,28,54,"Tincidunt Orci Quis LLC","1534032061","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (79,22,3,"Quam Company","1542926885","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (80,36,46,"Maecenas Libero Est Institute","1539115771","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (81,78,64,"Sed Nulla Corp.","1552354146","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (82,62,43,"Amet Consulting","1577579714","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (83,89,53,"Consectetuer Adipiscing PC","1584911625","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (84,38,22,"Curabitur Sed Industries","1560002179","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (85,1,31,"Adipiscing Lacus Company","1576233944","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (86,11,64,"A Magna Inc.","1550283042","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (87,95,95,"Tempus Scelerisque Lorem Corp.","1583793117","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (88,32,51,"Integer Urna Incorporated","1543383620","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (89,13,11,"Arcu Sed Eu Corporation","1538619141","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (90,63,84,"Vel Consulting","1529486657","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (91,69,97,"Blandit Viverra Donec Company","1587083888","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (92,90,37,"Aliquam Inc.","1574617133","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (93,25,10,"Mus Proin Vel LLC","1537658400","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (94,23,20,"Non Sollicitudin A Ltd","1539722023","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (95,61,37,"Sed Limited","1578084585","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (96,56,76,"Lectus Foundation","1535954220","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (97,19,65,"Sed Est Limited","1571516850","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (98,21,62,"Parturient Montes Consulting","1527581636","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (99,51,80,"Rutrum Non Hendrerit Foundation","1530361875","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO `comentarios` (`idcomentario`,`usuarios_idusuario`,`grupos_idgrupo`,`dscomentario`,`fecha`,`likes`) VALUES (100,13,66,"Quisque Nonummy LLP","1524662549","0");</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (1,53,2,'Elit Erat Vitae PC','1551592682',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (2,72,45,'Imperdiet Nec Limited','1550910236',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (3,8,28,'Lorem Ipsum Foundation','1555551246',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (4,91,99,'Ullamcorper Nisl Industries','1565600789',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (5,39,31,'Sem Ut Dolor Inc.','1581535943',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (6,2,51,'Nunc In Company','1568462310',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (7,13,4,'Odio LLP','1566733447',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (8,17,56,'Turpis Incorporated','1587234766',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (9,59,100,'Urna Nunc Quis LLP','1525444154',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (10,10,36,'Placerat Velit Quisque Limited','1553944354',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (11,61,14,'Taciti LLP','1568682024',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (12,12,7,'Vitae Risus Incorporated','1533060697',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (13,47,65,'Sed Corporation','1566005085',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (14,1,48,'Sit Amet Associates','1581967360',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (15,23,86,'Id Erat Corporation','1565098862',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (16,87,77,'Elit Etiam LLC','1581007769',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (17,30,94,'Enim Consequat Purus Company','1582566924',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (18,50,71,'Nulla Donec Non Corporation','1549605389',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (19,37,45,'Sem Ut Cursus Corp.','1573269128',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (20,2,58,'Vestibulum LLP','1568294257',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (21,23,64,'Fames Ac Turpis Inc.','1541376674',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (22,62,35,'Lobortis Ltd','1585890025',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (23,20,71,'Et Ultrices Posuere LLC','1569452010',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (24,84,68,'Eget Tincidunt Incorporated','1553505053',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (25,30,79,'Vestibulum Lorem LLC','1526472033',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (26,85,38,'Ipsum Sodales Associates','1563432941',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (27,36,27,'Justo Sit Amet Corp.','1538536153',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (28,57,8,'Mauris Sit Amet LLC','1554111828',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (29,31,20,'Fringilla Mi Industries','1547878248',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (30,85,13,'Suspendisse Institute','1578548689',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (31,18,30,'Erat PC','1547322025',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (32,38,49,'Nullam Feugiat Associates','1549698954',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (33,15,82,'Magna Ltd','1562404708',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (34,74,19,'Sit Amet LLC','1567155277',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (35,62,54,'Sit Amet Consectetuer LLC','1557860615',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (36,41,58,'Id Ante Nunc Foundation','1537121004',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (37,83,39,'Auctor Associates','1541493413',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (38,52,97,'Malesuada Fames Ac Inc.','1527493726',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (39,15,83,'Faucibus Id Libero Foundation','1556678011',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (40,27,87,'Faucibus Leo Industries','1566270804',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (41,91,67,'Ligula Company','1550481314',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (42,11,47,'Ornare Facilisis Corp.','1552193998',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (43,68,89,'Neque Sed Incorporated','1551650989',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (44,68,17,'Sed Pede LLP','1536613667',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (45,54,84,'Sit Ltd','1549913679',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (46,100,35,'Mauris Magna Corporation','1533731553',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (47,90,65,'Penatibus PC','1568273975',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (48,88,21,'Nullam Foundation','1585136242',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (49,12,27,'Lacus Pede Sagittis Corporation','1546147665',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (50,24,9,'Lorem Ipsum Dolor Foundation','1556663542',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (51,90,97,'Aliquam Eu Accumsan Inc.','1530334484',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (52,52,92,'Risus Donec Egestas LLP','1551660392',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (53,48,33,'Vel Vulputate Eu Corp.','1526677346',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (54,70,71,'Nulla Facilisis Incorporated','1540507892',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (55,40,26,'Sem Ut Dolor Foundation','1571871186',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (56,18,28,'Vitae Corporation','1554219238',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (57,96,45,'Lectus Corporation','1568674940',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (58,10,58,'Maecenas Mi Felis Industries','1569151581',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (59,60,86,'Orci Consectetuer Company','1546509543',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (60,26,90,'Diam PC','1561169412',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (61,77,52,'Et LLP','1581148482',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (62,79,23,'Eu Tellus Eu Industries','1555091819',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (63,15,92,'Curabitur Massa Vestibulum Limited','1535208954',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (64,10,87,'Elementum Dui Quis Ltd','1584240693',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (65,5,81,'Dolor Inc.','1534194696',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (66,67,82,'Egestas A Corporation','1552051802',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (67,71,25,'Parturient Inc.','1524992811',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (68,37,4,'Et Magnis Dis Limited','1527294922',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (69,24,28,'Magna Nec Associates','1537403907',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (70,86,12,'Ultricies LLP','1554091681',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (71,57,68,'Quam Dignissim PC','1583880472',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (72,69,96,'Luctus Lobortis Company','1574733464',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (73,9,34,'Magnis Dis Corporation','1550555591',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (74,37,100,'Elementum Ltd','1545123437',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (75,65,43,'Justo Proin Non Consulting','1556337604',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (76,35,48,'Velit Justo Nec Corp.','1542186140',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (77,73,94,'Metus In Nec PC','1558004633',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (78,28,54,'Tincidunt Orci Quis LLC','1534032061',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (79,22,3,'Quam Company','1542926885',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (80,36,46,'Maecenas Libero Est Institute','1539115771',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (81,78,64,'Sed Nulla Corp.','1552354146',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (82,62,43,'Amet Consulting','1577579714',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (83,89,53,'Consectetuer Adipiscing PC','1584911625',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (84,38,22,'Curabitur Sed Industries','1560002179',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (85,1,31,'Adipiscing Lacus Company','1576233944',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (86,11,64,'A Magna Inc.','1550283042',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (87,95,95,'Tempus Scelerisque Lorem Corp.','1583793117',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (88,32,51,'Integer Urna Incorporated','1543383620',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (89,13,11,'Arcu Sed Eu Corporation','1538619141',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (90,63,84,'Vel Consulting','1529486657',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (91,69,97,'Blandit Viverra Donec Company','1587083888',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (92,90,37,'Aliquam Inc.','1574617133',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (93,25,10,'Mus Proin Vel LLC','1537658400',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (94,23,20,'Non Sollicitudin A Ltd','1539722023',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (95,61,37,'Sed Limited','1578084585',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (96,56,76,'Lectus Foundation','1535954220',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (97,19,65,'Sed Est Limited','1571516850',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (98,21,62,'Parturient Montes Consulting','1527581636',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (99,51,80,'Rutrum Non Hendrerit Foundation','1530361875',0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO chatU.comentarios (idcomentario,usuarios_idusuario,grupos_idgrupo,dscomentario,fecha,likes) VALUES (100,13,66,'Quisque Nonummy LLP','1524662549',0);</t>
   </si>
 </sst>
 </file>
@@ -3030,6 +3933,1551 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>817</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
@@ -3100,7 +5548,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3164,8 +5612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4709,8 +7157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5739,7 +8187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection sqref="A1:A100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
